--- a/src/main/java/resources/track.xlsx
+++ b/src/main/java/resources/track.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/workspace/ece1186/src/main/java/info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/workspace/ece1186/src/main/java/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Information" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="111">
   <si>
     <t>Block Number</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>STATION;         MT LEBANON; SWITCH</t>
+  </si>
+  <si>
+    <t>YARD</t>
   </si>
 </sst>
 </file>
@@ -369,9 +372,16 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -469,36 +479,39 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -508,6 +521,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -854,9 +870,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,7 +1221,7 @@
       <c r="K10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="10"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
@@ -1238,7 +1254,7 @@
       <c r="J11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="16" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2989,7 +3005,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3021,7 +3037,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3050,7 +3066,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3085,7 +3101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3123,7 +3139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3158,7 +3174,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Red</v>
@@ -3190,7 +3206,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" ref="A71:A77" si="6">A70</f>
         <v>Red</v>
@@ -3225,7 +3241,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3263,7 +3279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3301,7 +3317,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3336,7 +3352,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3368,7 +3384,7 @@
         <v>-4.4408920985006262E-16</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3403,7 +3419,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="6"/>
         <v>Red</v>
@@ -3441,7 +3457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>12</v>
       </c>
@@ -3474,11 +3490,14 @@
       <c r="K78" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.2">
@@ -3713,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
